--- a/index_stocks.xlsx
+++ b/index_stocks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datascience\tradingsetup\stock_filter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datascience\trading_setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B0A718-92E4-4015-BC11-4DAC77D67335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D86D14-80B8-4794-8CF4-CFA3E72DB7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$500</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="509">
   <si>
     <t>MPHASIS</t>
   </si>
@@ -1168,9 +1168,6 @@
   </si>
   <si>
     <t>PRAJIND</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
   </si>
   <si>
     <t>JYOTHYLAB</t>
@@ -1918,11 +1915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1936,13 +1933,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>150</v>
@@ -1957,7 +1954,7 @@
         <v>NSE:MPHASIS-EQ</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>151</v>
@@ -1972,7 +1969,7 @@
         <v>NSE:PAYTM-EQ</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>151</v>
@@ -1987,7 +1984,7 @@
         <v>NSE:MEDANTA-EQ</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>151</v>
@@ -2002,7 +1999,7 @@
         <v>NSE:COFORGE-EQ</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>151</v>
@@ -2017,7 +2014,7 @@
         <v>NSE:GLAND-EQ</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>151</v>
@@ -2032,7 +2029,7 @@
         <v>NSE:IGL-EQ</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>151</v>
@@ -2047,7 +2044,7 @@
         <v>NSE:POLYCAB-EQ</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>151</v>
@@ -2062,7 +2059,7 @@
         <v>NSE:NTPCGREEN-EQ</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>151</v>
@@ -2077,7 +2074,7 @@
         <v>NSE:SYNGENE-EQ</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>151</v>
@@ -2092,7 +2089,7 @@
         <v>NSE:KEI-EQ</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>151</v>
@@ -2107,7 +2104,7 @@
         <v>NSE:TORNTPOWER-EQ</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>151</v>
@@ -2122,7 +2119,7 @@
         <v>NSE:JSL-EQ</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>151</v>
@@ -2137,7 +2134,7 @@
         <v>NSE:KALYANKJIL-EQ</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>151</v>
@@ -2152,7 +2149,7 @@
         <v>NSE:UPL-EQ</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>151</v>
@@ -2167,7 +2164,7 @@
         <v>NSE:ASHOKLEY-EQ</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>151</v>
@@ -2182,7 +2179,7 @@
         <v>NSE:ALKEM-EQ</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>151</v>
@@ -2197,7 +2194,7 @@
         <v>NSE:SRF-EQ</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>151</v>
@@ -2212,7 +2209,7 @@
         <v>NSE:SCHAEFFLER-EQ</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>151</v>
@@ -2227,7 +2224,7 @@
         <v>NSE:MARICO-EQ</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>151</v>
@@ -2242,7 +2239,7 @@
         <v>NSE:LUPIN-EQ</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>151</v>
@@ -2257,7 +2254,7 @@
         <v>NSE:EXIDEIND-EQ</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>151</v>
@@ -2272,7 +2269,7 @@
         <v>NSE:POLICYBZR-EQ</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>151</v>
@@ -2287,7 +2284,7 @@
         <v>NSE:PAGEIND-EQ</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>151</v>
@@ -2302,7 +2299,7 @@
         <v>NSE:BERGEPAINT-EQ</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>151</v>
@@ -2317,7 +2314,7 @@
         <v>NSE:VOLTAS-EQ</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>151</v>
@@ -2332,7 +2329,7 @@
         <v>NSE:DIXON-EQ</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>151</v>
@@ -2347,7 +2344,7 @@
         <v>NSE:SUPREMEIND-EQ</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>151</v>
@@ -2362,7 +2359,7 @@
         <v>NSE:NHPC-EQ</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>151</v>
@@ -2377,7 +2374,7 @@
         <v>NSE:BALKRISIND-EQ</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>151</v>
@@ -2392,7 +2389,7 @@
         <v>NSE:OFSS-EQ</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>151</v>
@@ -2407,7 +2404,7 @@
         <v>NSE:LINDEINDIA-EQ</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>151</v>
@@ -2422,7 +2419,7 @@
         <v>NSE:HINDPETRO-EQ</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>151</v>
@@ -2437,7 +2434,7 @@
         <v>NSE:AUROPHARMA-EQ</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>151</v>
@@ -2452,7 +2449,7 @@
         <v>NSE:CUMMINSIND-EQ</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>151</v>
@@ -2467,7 +2464,7 @@
         <v>NSE:FORTIS-EQ</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>151</v>
@@ -2482,7 +2479,7 @@
         <v>NSE:HDFCAMC-EQ</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>151</v>
@@ -2497,7 +2494,7 @@
         <v>NSE:MAHABANK-EQ</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>151</v>
@@ -2512,7 +2509,7 @@
         <v>NSE:ESCORTS-EQ</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>151</v>
@@ -2527,7 +2524,7 @@
         <v>NSE:OLAELEC-EQ</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>151</v>
@@ -2542,7 +2539,7 @@
         <v>NSE:IDFCFIRSTB-EQ</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>151</v>
@@ -2557,7 +2554,7 @@
         <v>NSE:ATGL-EQ</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>151</v>
@@ -2572,7 +2569,7 @@
         <v>NSE:TATACOMM-EQ</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>151</v>
@@ -2587,7 +2584,7 @@
         <v>NSE:PETRONET-EQ</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>151</v>
@@ -2602,7 +2599,7 @@
         <v>NSE:TATAINVEST-EQ</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>151</v>
@@ -2617,7 +2614,7 @@
         <v>NSE:PIIND-EQ</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>151</v>
@@ -2632,7 +2629,7 @@
         <v>NSE:BSE-EQ</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>151</v>
@@ -2647,7 +2644,7 @@
         <v>NSE:MFSL-EQ</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>151</v>
@@ -2662,7 +2659,7 @@
         <v>NSE:PERSISTENT-EQ</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>151</v>
@@ -2677,7 +2674,7 @@
         <v>NSE:KPRMILL-EQ</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>151</v>
@@ -2692,7 +2689,7 @@
         <v>NSE:GMRAIRPORT-EQ</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>151</v>
@@ -2707,7 +2704,7 @@
         <v>NSE:JKCEMENT-EQ</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>151</v>
@@ -2722,7 +2719,7 @@
         <v>NSE:COLPAL-EQ</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>151</v>
@@ -2737,7 +2734,7 @@
         <v>NSE:GLENMARK-EQ</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>151</v>
@@ -2752,7 +2749,7 @@
         <v>NSE:LTTS-EQ</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>151</v>
@@ -2767,7 +2764,7 @@
         <v>NSE:SOLARINDS-EQ</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>151</v>
@@ -2782,7 +2779,7 @@
         <v>NSE:SONACOMS-EQ</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>151</v>
@@ -2797,7 +2794,7 @@
         <v>NSE:MUTHOOTFIN-EQ</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>151</v>
@@ -2812,7 +2809,7 @@
         <v>NSE:TATAELXSI-EQ</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>151</v>
@@ -2827,7 +2824,7 @@
         <v>NSE:THERMAX-EQ</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>151</v>
@@ -2842,7 +2839,7 @@
         <v>NSE:JUBLFOOD-EQ</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>151</v>
@@ -2857,7 +2854,7 @@
         <v>NSE:SJVN-EQ</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>151</v>
@@ -2872,7 +2869,7 @@
         <v>NSE:IDEA-EQ</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>151</v>
@@ -2887,7 +2884,7 @@
         <v>NSE:BLUESTARCO-EQ</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>151</v>
@@ -2902,7 +2899,7 @@
         <v>NSE:ABFRL-EQ</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>151</v>
@@ -2917,7 +2914,7 @@
         <v>NSE:360ONE-EQ</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>151</v>
@@ -2932,7 +2929,7 @@
         <v>NSE:STARHEALTH-EQ</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>151</v>
@@ -2947,7 +2944,7 @@
         <v>NSE:DALBHARAT-EQ</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>151</v>
@@ -2962,7 +2959,7 @@
         <v>NSE:APOLLOTYRE-EQ</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>151</v>
@@ -2977,7 +2974,7 @@
         <v>NSE:NMDC-EQ</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>151</v>
@@ -2992,7 +2989,7 @@
         <v>NSE:GICRE-EQ</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>151</v>
@@ -3007,7 +3004,7 @@
         <v>NSE:FEDERALBNK-EQ</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>151</v>
@@ -3022,7 +3019,7 @@
         <v>NSE:AIAENG-EQ</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>151</v>
@@ -3037,7 +3034,7 @@
         <v>NSE:NYKAA-EQ</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>151</v>
@@ -3052,7 +3049,7 @@
         <v>NSE:AUBANK-EQ</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>151</v>
@@ -3067,7 +3064,7 @@
         <v>NSE:MRF-EQ</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>151</v>
@@ -3082,7 +3079,7 @@
         <v>NSE:3MINDIA-EQ</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>151</v>
@@ -3097,7 +3094,7 @@
         <v>NSE:AJANTPHARM-EQ</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>151</v>
@@ -3112,7 +3109,7 @@
         <v>NSE:BHARATFORG-EQ</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>151</v>
@@ -3127,7 +3124,7 @@
         <v>NSE:MSUMI-EQ</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>151</v>
@@ -3142,7 +3139,7 @@
         <v>NSE:PHOENIXLTD-EQ</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>151</v>
@@ -3157,7 +3154,7 @@
         <v>NSE:YESBANK-EQ</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>151</v>
@@ -3172,7 +3169,7 @@
         <v>NSE:ACC-EQ</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>151</v>
@@ -3187,7 +3184,7 @@
         <v>NSE:COROMANDEL-EQ</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>151</v>
@@ -3202,7 +3199,7 @@
         <v>NSE:ENDURANCE-EQ</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>151</v>
@@ -3217,7 +3214,7 @@
         <v>NSE:CONCOR-EQ</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>151</v>
@@ -3232,7 +3229,7 @@
         <v>NSE:TATATECH-EQ</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>151</v>
@@ -3247,7 +3244,7 @@
         <v>NSE:BHARTIHEXA-EQ</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>151</v>
@@ -3262,7 +3259,7 @@
         <v>NSE:GODREJIND-EQ</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>151</v>
@@ -3277,7 +3274,7 @@
         <v>NSE:INDIANB-EQ</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>151</v>
@@ -3292,7 +3289,7 @@
         <v>NSE:BANDHANBNK-EQ</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>151</v>
@@ -3307,7 +3304,7 @@
         <v>NSE:M&amp;MFIN-EQ</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>151</v>
@@ -3322,7 +3319,7 @@
         <v>NSE:BANKINDIA-EQ</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>151</v>
@@ -3337,7 +3334,7 @@
         <v>NSE:BIOCON-EQ</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>151</v>
@@ -3352,7 +3349,7 @@
         <v>NSE:UBL-EQ</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>151</v>
@@ -3367,7 +3364,7 @@
         <v>NSE:LTF-EQ</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>151</v>
@@ -3382,7 +3379,7 @@
         <v>NSE:AWL-EQ</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>151</v>
@@ -3397,7 +3394,7 @@
         <v>NSE:DEEPAKNTR-EQ</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>151</v>
@@ -3412,7 +3409,7 @@
         <v>NSE:SUNTV-EQ</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>151</v>
@@ -3427,7 +3424,7 @@
         <v>NSE:FLUOROCHEM-EQ</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>151</v>
@@ -3442,7 +3439,7 @@
         <v>NSE:BHEL-EQ</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>151</v>
@@ -3457,7 +3454,7 @@
         <v>NSE:HINDZINC-EQ</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>151</v>
@@ -3472,7 +3469,7 @@
         <v>NSE:MAXHEALTH-EQ</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>151</v>
@@ -3487,7 +3484,7 @@
         <v>NSE:PATANJALI-EQ</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>151</v>
@@ -3502,7 +3499,7 @@
         <v>NSE:GUJGASLTD-EQ</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>151</v>
@@ -3517,7 +3514,7 @@
         <v>NSE:UNOMINDA-EQ</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>151</v>
@@ -3532,7 +3529,7 @@
         <v>NSE:MOTILALOFS-EQ</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>151</v>
@@ -3547,7 +3544,7 @@
         <v>NSE:IRB-EQ</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>151</v>
@@ -3562,7 +3559,7 @@
         <v>NSE:IPCALAB-EQ</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>151</v>
@@ -3577,7 +3574,7 @@
         <v>NSE:OIL-EQ</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>151</v>
@@ -3592,7 +3589,7 @@
         <v>NSE:NLCINDIA-EQ</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>151</v>
@@ -3607,7 +3604,7 @@
         <v>NSE:UNIONBANK-EQ</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>151</v>
@@ -3622,7 +3619,7 @@
         <v>NSE:IREDA-EQ</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>151</v>
@@ -3637,7 +3634,7 @@
         <v>NSE:GLAXO-EQ</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>151</v>
@@ -3652,7 +3649,7 @@
         <v>NSE:HUDCO-EQ</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>151</v>
@@ -3667,7 +3664,7 @@
         <v>NSE:GVT&amp;D-EQ</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>151</v>
@@ -3682,7 +3679,7 @@
         <v>NSE:ASTRAL-EQ</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>151</v>
@@ -3697,7 +3694,7 @@
         <v>NSE:LLOYDSME-EQ</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>151</v>
@@ -3712,7 +3709,7 @@
         <v>NSE:IRCTC-EQ</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>151</v>
@@ -3727,7 +3724,7 @@
         <v>NSE:KPITTECH-EQ</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>151</v>
@@ -3742,7 +3739,7 @@
         <v>NSE:EMAMILTD-EQ</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>151</v>
@@ -3757,7 +3754,7 @@
         <v>NSE:SUNDARMFIN-EQ</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>151</v>
@@ -3772,7 +3769,7 @@
         <v>NSE:NAM-INDIA-EQ</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>151</v>
@@ -3787,7 +3784,7 @@
         <v>NSE:POWERINDIA-EQ</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>151</v>
@@ -3802,7 +3799,7 @@
         <v>NSE:TIINDIA-EQ</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>151</v>
@@ -3817,7 +3814,7 @@
         <v>NSE:BDL-EQ</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>151</v>
@@ -3832,7 +3829,7 @@
         <v>NSE:MANKIND-EQ</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>151</v>
@@ -3847,7 +3844,7 @@
         <v>NSE:INDUSTOWER-EQ</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>151</v>
@@ -3862,7 +3859,7 @@
         <v>NSE:APLAPOLLO-EQ</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>151</v>
@@ -3877,7 +3874,7 @@
         <v>NSE:LICHSGFIN-EQ</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>151</v>
@@ -3892,7 +3889,7 @@
         <v>NSE:ABCAPITAL-EQ</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>151</v>
@@ -3907,7 +3904,7 @@
         <v>NSE:ABBOTINDIA-EQ</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>151</v>
@@ -3922,7 +3919,7 @@
         <v>NSE:JSWINFRA-EQ</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>151</v>
@@ -3937,7 +3934,7 @@
         <v>NSE:COCHINSHIP-EQ</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>151</v>
@@ -3952,7 +3949,7 @@
         <v>NSE:RVNL-EQ</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>151</v>
@@ -3967,7 +3964,7 @@
         <v>NSE:WAAREEENER-EQ</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>151</v>
@@ -3982,7 +3979,7 @@
         <v>NSE:APARINDS-EQ</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>151</v>
@@ -3997,7 +3994,7 @@
         <v>NSE:MAZDOCK-EQ</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>151</v>
@@ -4012,7 +4009,7 @@
         <v>NSE:CRISIL-EQ</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>151</v>
@@ -4027,7 +4024,7 @@
         <v>NSE:NATIONALUM-EQ</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>151</v>
@@ -4042,7 +4039,7 @@
         <v>NSE:NIACL-EQ</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>151</v>
@@ -4057,7 +4054,7 @@
         <v>NSE:SAIL-EQ</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>151</v>
@@ -4072,7 +4069,7 @@
         <v>NSE:PREMIERENE-EQ</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>151</v>
@@ -4087,7 +4084,7 @@
         <v>NSE:PRESTIGE-EQ</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>151</v>
@@ -4102,7 +4099,7 @@
         <v>NSE:HONAUT-EQ</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>151</v>
@@ -4117,7 +4114,7 @@
         <v>NSE:OBEROIRLTY-EQ</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>151</v>
@@ -4132,7 +4129,7 @@
         <v>NSE:SUZLON-EQ</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>151</v>
@@ -4147,7 +4144,7 @@
         <v>NSE:MRPL-EQ</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>151</v>
@@ -4162,7 +4159,7 @@
         <v>NSE:VMM-EQ</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>151</v>
@@ -4177,7 +4174,7 @@
         <v>NSE:GODREJPROP-EQ</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>151</v>
@@ -4192,7 +4189,7 @@
         <v>NSE:SBICARD-EQ</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>151</v>
@@ -4207,7 +4204,7 @@
         <v>NSE:ADANIGREEN-EQ</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>252</v>
@@ -4222,7 +4219,7 @@
         <v>NSE:SHRIRAMFIN-EQ</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>252</v>
@@ -4237,7 +4234,7 @@
         <v>NSE:CIPLA-EQ</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>252</v>
@@ -4252,7 +4249,7 @@
         <v>NSE:DABUR-EQ</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>252</v>
@@ -4267,7 +4264,7 @@
         <v>NSE:MOTHERSON-EQ</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>252</v>
@@ -4282,7 +4279,7 @@
         <v>NSE:VBL-EQ</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>252</v>
@@ -4297,7 +4294,7 @@
         <v>NSE:HEROMOTOCO-EQ</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>252</v>
@@ -4312,7 +4309,7 @@
         <v>NSE:ASIANPAINT-EQ</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>252</v>
@@ -4327,7 +4324,7 @@
         <v>NSE:BOSCHLTD-EQ</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>252</v>
@@ -4342,7 +4339,7 @@
         <v>NSE:HINDUNILVR-EQ</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>252</v>
@@ -4357,7 +4354,7 @@
         <v>NSE:TATAPOWER-EQ</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>252</v>
@@ -4372,7 +4369,7 @@
         <v>NSE:TVSMOTOR-EQ</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>252</v>
@@ -4387,7 +4384,7 @@
         <v>NSE:SBILIFE-EQ</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>252</v>
@@ -4402,7 +4399,7 @@
         <v>NSE:TATACONSUM-EQ</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>252</v>
@@ -4417,7 +4414,7 @@
         <v>NSE:ICICIBANK-EQ</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>252</v>
@@ -4432,7 +4429,7 @@
         <v>NSE:TORNTPHARM-EQ</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>252</v>
@@ -4447,7 +4444,7 @@
         <v>NSE:SIEMENS-EQ</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>252</v>
@@ -4462,7 +4459,7 @@
         <v>NSE:DRREDDY-EQ</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>252</v>
@@ -4477,7 +4474,7 @@
         <v>NSE:GRASIM-EQ</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>252</v>
@@ -4492,7 +4489,7 @@
         <v>NSE:BRITANNIA-EQ</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>252</v>
@@ -4507,7 +4504,7 @@
         <v>NSE:JSWSTEEL-EQ</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>252</v>
@@ -4522,7 +4519,7 @@
         <v>NSE:ADANIPOWER-EQ</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>252</v>
@@ -4537,7 +4534,7 @@
         <v>NSE:UNITDSPR-EQ</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>252</v>
@@ -4552,7 +4549,7 @@
         <v>NSE:HDFCBANK-EQ</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>252</v>
@@ -4567,7 +4564,7 @@
         <v>NSE:BPCL-EQ</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>252</v>
@@ -4582,7 +4579,7 @@
         <v>NSE:IOC-EQ</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>252</v>
@@ -4597,7 +4594,7 @@
         <v>NSE:LICI-EQ</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>252</v>
@@ -4612,7 +4609,7 @@
         <v>NSE:JSWENERGY-EQ</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>252</v>
@@ -4627,7 +4624,7 @@
         <v>NSE:ZYDUSLIFE-EQ</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>252</v>
@@ -4642,7 +4639,7 @@
         <v>NSE:POWERGRID-EQ</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>252</v>
@@ -4657,7 +4654,7 @@
         <v>NSE:ITC-EQ</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>252</v>
@@ -4672,7 +4669,7 @@
         <v>NSE:ADANIENSOL-EQ</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>252</v>
@@ -4687,7 +4684,7 @@
         <v>NSE:SUNPHARMA-EQ</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>252</v>
@@ -4702,7 +4699,7 @@
         <v>NSE:BAJAJ-AUTO-EQ</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>252</v>
@@ -4717,7 +4714,7 @@
         <v>NSE:INFY-EQ</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>252</v>
@@ -4732,7 +4729,7 @@
         <v>NSE:ULTRACEMCO-EQ</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>252</v>
@@ -4747,7 +4744,7 @@
         <v>NSE:NTPC-EQ</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>252</v>
@@ -4762,7 +4759,7 @@
         <v>NSE:HDFCLIFE-EQ</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>252</v>
@@ -4777,7 +4774,7 @@
         <v>NSE:INDHOTEL-EQ</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>252</v>
@@ -4792,7 +4789,7 @@
         <v>NSE:GODREJCP-EQ</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>252</v>
@@ -4807,7 +4804,7 @@
         <v>NSE:CANBK-EQ</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>252</v>
@@ -4822,7 +4819,7 @@
         <v>NSE:ONGC-EQ</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>252</v>
@@ -4837,7 +4834,7 @@
         <v>NSE:SWIGGY-EQ</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>252</v>
@@ -4852,7 +4849,7 @@
         <v>NSE:RELIANCE-EQ</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>252</v>
@@ -4867,7 +4864,7 @@
         <v>NSE:TATAMOTORS-EQ</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>252</v>
@@ -4882,7 +4879,7 @@
         <v>NSE:BAJAJFINSV-EQ</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>252</v>
@@ -4897,7 +4894,7 @@
         <v>NSE:DIVISLAB-EQ</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>252</v>
@@ -4912,7 +4909,7 @@
         <v>NSE:BAJAJHLDNG-EQ</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>252</v>
@@ -4927,7 +4924,7 @@
         <v>NSE:MARUTI-EQ</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>252</v>
@@ -4942,7 +4939,7 @@
         <v>NSE:LT-EQ</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>252</v>
@@ -4957,7 +4954,7 @@
         <v>NSE:PIDILITIND-EQ</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>252</v>
@@ -4972,7 +4969,7 @@
         <v>NSE:IRFC-EQ</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>252</v>
@@ -4987,7 +4984,7 @@
         <v>NSE:CGPOWER-EQ</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>252</v>
@@ -5002,7 +4999,7 @@
         <v>NSE:COALINDIA-EQ</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>252</v>
@@ -5017,7 +5014,7 @@
         <v>NSE:TECHM-EQ</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>252</v>
@@ -5032,7 +5029,7 @@
         <v>NSE:ICICIPRULI-EQ</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>252</v>
@@ -5047,7 +5044,7 @@
         <v>NSE:AMBUJACEM-EQ</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>252</v>
@@ -5062,7 +5059,7 @@
         <v>NSE:INDIGO-EQ</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>252</v>
@@ -5077,7 +5074,7 @@
         <v>NSE:TRENT-EQ</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>252</v>
@@ -5092,7 +5089,7 @@
         <v>NSE:CHOLAFIN-EQ</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>252</v>
@@ -5107,7 +5104,7 @@
         <v>NSE:ADANIENT-EQ</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>252</v>
@@ -5122,7 +5119,7 @@
         <v>NSE:ICICIGI-EQ</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>252</v>
@@ -5137,7 +5134,7 @@
         <v>NSE:EICHERMOT-EQ</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>252</v>
@@ -5152,7 +5149,7 @@
         <v>NSE:LTIM-EQ</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>252</v>
@@ -5167,7 +5164,7 @@
         <v>NSE:HAL-EQ</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>252</v>
@@ -5182,7 +5179,7 @@
         <v>NSE:BEL-EQ</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>252</v>
@@ -5197,7 +5194,7 @@
         <v>NSE:HINDALCO-EQ</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>252</v>
@@ -5212,7 +5209,7 @@
         <v>NSE:AXISBANK-EQ</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>252</v>
@@ -5227,7 +5224,7 @@
         <v>NSE:M&amp;M-EQ</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>252</v>
@@ -5242,7 +5239,7 @@
         <v>NSE:ETERNAL-EQ</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>252</v>
@@ -5257,7 +5254,7 @@
         <v>NSE:BANKBARODA-EQ</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>252</v>
@@ -5272,7 +5269,7 @@
         <v>NSE:JIOFIN-EQ</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>252</v>
@@ -5287,7 +5284,7 @@
         <v>NSE:DMART-EQ</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>252</v>
@@ -5302,7 +5299,7 @@
         <v>NSE:SBIN-EQ</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>252</v>
@@ -5317,7 +5314,7 @@
         <v>NSE:PNB-EQ</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>252</v>
@@ -5332,7 +5329,7 @@
         <v>NSE:TATASTEEL-EQ</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>252</v>
@@ -5347,7 +5344,7 @@
         <v>NSE:SHREECEM-EQ</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>252</v>
@@ -5362,7 +5359,7 @@
         <v>NSE:VEDL-EQ</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>252</v>
@@ -5377,7 +5374,7 @@
         <v>NSE:BAJAJHFL-EQ</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>252</v>
@@ -5392,7 +5389,7 @@
         <v>NSE:APOLLOHOSP-EQ</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>252</v>
@@ -5407,7 +5404,7 @@
         <v>NSE:ADANIPORTS-EQ</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>252</v>
@@ -5422,7 +5419,7 @@
         <v>NSE:HAVELLS-EQ</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>252</v>
@@ -5437,7 +5434,7 @@
         <v>NSE:HCLTECH-EQ</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>252</v>
@@ -5452,7 +5449,7 @@
         <v>NSE:NAUKRI-EQ</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>252</v>
@@ -5467,7 +5464,7 @@
         <v>NSE:WIPRO-EQ</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>252</v>
@@ -5482,7 +5479,7 @@
         <v>NSE:TCS-EQ</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>252</v>
@@ -5497,7 +5494,7 @@
         <v>NSE:NESTLEIND-EQ</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>252</v>
@@ -5512,7 +5509,7 @@
         <v>NSE:ABB-EQ</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>252</v>
@@ -5527,7 +5524,7 @@
         <v>NSE:GAIL-EQ</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>252</v>
@@ -5542,7 +5539,7 @@
         <v>NSE:RECLTD-EQ</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>252</v>
@@ -5557,7 +5554,7 @@
         <v>NSE:TITAN-EQ</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>252</v>
@@ -5572,7 +5569,7 @@
         <v>NSE:HYUNDAI-EQ</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>252</v>
@@ -5587,7 +5584,7 @@
         <v>NSE:JINDALSTEL-EQ</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>252</v>
@@ -5602,7 +5599,7 @@
         <v>NSE:PFC-EQ</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>252</v>
@@ -5617,7 +5614,7 @@
         <v>NSE:BHARTIARTL-EQ</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>252</v>
@@ -5632,7 +5629,7 @@
         <v>NSE:INDUSINDBK-EQ</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>252</v>
@@ -5647,7 +5644,7 @@
         <v>NSE:BAJFINANCE-EQ</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>252</v>
@@ -5662,7 +5659,7 @@
         <v>NSE:DLF-EQ</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>252</v>
@@ -5677,7 +5674,7 @@
         <v>NSE:LODHA-EQ</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>252</v>
@@ -5692,7 +5689,7 @@
         <v>NSE:KOTAKBANK-EQ</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>252</v>
@@ -5707,10 +5704,10 @@
         <v>NSE:ACMESOLAR-EQ</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -5722,10 +5719,10 @@
         <v>NSE:LAURUSLABS-EQ</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -5737,10 +5734,10 @@
         <v>NSE:VIJAYA-EQ</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -5752,10 +5749,10 @@
         <v>NSE:CHENNPETRO-EQ</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -5767,10 +5764,10 @@
         <v>NSE:ECLERX-EQ</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -5782,10 +5779,10 @@
         <v>NSE:AADHARHFC-EQ</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5797,10 +5794,10 @@
         <v>NSE:AMBER-EQ</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5812,10 +5809,10 @@
         <v>NSE:SYRMA-EQ</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5827,10 +5824,10 @@
         <v>NSE:RAMCOCEM-EQ</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5842,10 +5839,10 @@
         <v>NSE:AFFLE-EQ</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5857,10 +5854,10 @@
         <v>NSE:INTELLECT-EQ</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,10 +5869,10 @@
         <v>NSE:JPPOWER-EQ</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5887,10 +5884,10 @@
         <v>NSE:SBFC-EQ</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5902,10 +5899,10 @@
         <v>NSE:ABSLAMC-EQ</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5917,10 +5914,10 @@
         <v>NSE:ANANDRATHI-EQ</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5932,10 +5929,10 @@
         <v>NSE:TIMKEN-EQ</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5947,10 +5944,10 @@
         <v>NSE:POONAWALLA-EQ</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5962,10 +5959,10 @@
         <v>NSE:NAVINFLUOR-EQ</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5977,10 +5974,10 @@
         <v>NSE:PEL-EQ</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5992,10 +5989,10 @@
         <v>NSE:KIMS-EQ</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6007,10 +6004,10 @@
         <v>NSE:ASTRAZEN-EQ</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -6022,10 +6019,10 @@
         <v>NSE:PPLPHARMA-EQ</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6037,10 +6034,10 @@
         <v>NSE:RHIM-EQ</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6052,10 +6049,10 @@
         <v>NSE:CAPLIPOINT-EQ</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -6067,10 +6064,10 @@
         <v>NSE:SAPPHIRE-EQ</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -6082,10 +6079,10 @@
         <v>NSE:CROMPTON-EQ</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -6097,10 +6094,10 @@
         <v>NSE:JUBLINGREA-EQ</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -6112,10 +6109,10 @@
         <v>NSE:NEWGEN-EQ</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -6127,10 +6124,10 @@
         <v>NSE:HONASA-EQ</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -6142,10 +6139,10 @@
         <v>NSE:MAPMYINDIA-EQ</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -6157,10 +6154,10 @@
         <v>NSE:DELHIVERY-EQ</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -6172,10 +6169,10 @@
         <v>NSE:APLLTD-EQ</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -6187,10 +6184,10 @@
         <v>NSE:JSWHL-EQ</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -6202,10 +6199,10 @@
         <v>NSE:CESC-EQ</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -6217,10 +6214,10 @@
         <v>NSE:EIDPARRY-EQ</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -6232,10 +6229,10 @@
         <v>NSE:HFCL-EQ</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -6247,10 +6244,10 @@
         <v>NSE:HEG-EQ</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -6262,10 +6259,10 @@
         <v>NSE:ZENSARTECH-EQ</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -6277,10 +6274,10 @@
         <v>NSE:PNBHOUSING-EQ</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -6292,10 +6289,10 @@
         <v>NSE:KAJARIACER-EQ</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -6307,10 +6304,10 @@
         <v>NSE:NEULANDLAB-EQ</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -6322,10 +6319,10 @@
         <v>NSE:PTCIL-EQ</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -6337,10 +6334,10 @@
         <v>NSE:ATUL-EQ</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -6352,10 +6349,10 @@
         <v>NSE:EIHOTEL-EQ</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -6367,10 +6364,10 @@
         <v>NSE:GODIGIT-EQ</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -6382,10 +6379,10 @@
         <v>NSE:JBCHEPHARM-EQ</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -6397,10 +6394,10 @@
         <v>NSE:JUSTDIAL-EQ</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -6412,10 +6409,10 @@
         <v>NSE:WOCKPHARMA-EQ</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -6427,10 +6424,10 @@
         <v>NSE:JUBLPHARMA-EQ</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -6442,10 +6439,10 @@
         <v>NSE:ALIVUS-EQ</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -6457,10 +6454,10 @@
         <v>NSE:KEC-EQ</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -6472,10 +6469,10 @@
         <v>NSE:MGL-EQ</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -6487,10 +6484,10 @@
         <v>NSE:TBOTEK-EQ</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -6502,10 +6499,10 @@
         <v>NSE:NH-EQ</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -6517,10 +6514,10 @@
         <v>NSE:USHAMART-EQ</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -6532,10 +6529,10 @@
         <v>NSE:METROPOLIS-EQ</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -6547,10 +6544,10 @@
         <v>NSE:CCL-EQ</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -6562,10 +6559,10 @@
         <v>NSE:KARURVYSYA-EQ</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -6577,10 +6574,10 @@
         <v>NSE:INDIAMART-EQ</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -6592,10 +6589,10 @@
         <v>NSE:GPIL-EQ</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -6607,10 +6604,10 @@
         <v>NSE:CENTRALBK-EQ</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -6622,10 +6619,10 @@
         <v>NSE:UCOBANK-EQ</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -6637,10 +6634,10 @@
         <v>NSE:CLEAN-EQ</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -6652,10 +6649,10 @@
         <v>NSE:AARTIIND-EQ</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -6667,10 +6664,10 @@
         <v>NSE:BALRAMCHIN-EQ</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -6682,10 +6679,10 @@
         <v>NSE:EMCURE-EQ</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -6697,10 +6694,10 @@
         <v>NSE:BATAINDIA-EQ</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -6712,10 +6709,10 @@
         <v>NSE:GRAPHITE-EQ</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -6727,10 +6724,10 @@
         <v>NSE:BAYERCROP-EQ</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -6742,10 +6739,10 @@
         <v>NSE:GILLETTE-EQ</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -6757,10 +6754,10 @@
         <v>NSE:MINDACORP-EQ</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -6768,14 +6765,14 @@
         <v>324</v>
       </c>
       <c r="B323" s="1" t="str">
-        <f t="shared" ref="B323:B386" si="5">"NSE:"&amp;A323&amp;"-"&amp;"EQ"</f>
+        <f t="shared" ref="B323:B385" si="5">"NSE:"&amp;A323&amp;"-"&amp;"EQ"</f>
         <v>NSE:RITES-EQ</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -6787,10 +6784,10 @@
         <v>NSE:INDIACEM-EQ</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -6802,10 +6799,10 @@
         <v>NSE:AEGISLOG-EQ</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -6817,10 +6814,10 @@
         <v>NSE:AKUMS-EQ</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -6832,10 +6829,10 @@
         <v>NSE:CRAFTSMAN-EQ</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -6847,10 +6844,10 @@
         <v>NSE:NBCC-EQ</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -6862,10 +6859,10 @@
         <v>NSE:TRITURBINE-EQ</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -6877,10 +6874,10 @@
         <v>NSE:CYIENT-EQ</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -6892,10 +6889,10 @@
         <v>NSE:SUMICHEM-EQ</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -6907,10 +6904,10 @@
         <v>NSE:DCMSHRIRAM-EQ</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -6922,10 +6919,10 @@
         <v>NSE:CENTURYPLY-EQ</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -6937,10 +6934,10 @@
         <v>NSE:RBLBANK-EQ</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -6952,10 +6949,10 @@
         <v>NSE:GODREJAGRO-EQ</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -6967,10 +6964,10 @@
         <v>NSE:TATACHEM-EQ</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -6982,10 +6979,10 @@
         <v>NSE:ASAHIINDIA-EQ</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -6997,10 +6994,10 @@
         <v>NSE:GRANULES-EQ</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -7012,10 +7009,10 @@
         <v>NSE:GSPL-EQ</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -7027,10 +7024,10 @@
         <v>NSE:IFCI-EQ</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -7042,10 +7039,10 @@
         <v>NSE:BLS-EQ</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -7057,10 +7054,10 @@
         <v>NSE:FINCABLES-EQ</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -7072,10 +7069,10 @@
         <v>NSE:FIRSTCRY-EQ</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -7087,10 +7084,10 @@
         <v>NSE:MASTEK-EQ</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -7102,10 +7099,10 @@
         <v>NSE:ACE-EQ</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -7117,10 +7114,10 @@
         <v>NSE:ASTERDM-EQ</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -7132,10 +7129,10 @@
         <v>NSE:LATENTVIEW-EQ</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -7147,10 +7144,10 @@
         <v>NSE:INOXWIND-EQ</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -7162,10 +7159,10 @@
         <v>NSE:RAINBOW-EQ</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -7177,10 +7174,10 @@
         <v>NSE:LEMONTREE-EQ</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -7192,10 +7189,10 @@
         <v>NSE:NIVABUPA-EQ</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -7207,10 +7204,10 @@
         <v>NSE:CERA-EQ</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -7222,10 +7219,10 @@
         <v>NSE:SONATSOFTW-EQ</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -7237,10 +7234,10 @@
         <v>NSE:FINPIPE-EQ</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -7252,10 +7249,10 @@
         <v>NSE:SHYAMMETL-EQ</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -7267,10 +7264,10 @@
         <v>NSE:IGIL-EQ</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -7282,10 +7279,10 @@
         <v>NSE:UTIAMC-EQ</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -7297,10 +7294,10 @@
         <v>NSE:SARDAEN-EQ</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -7312,10 +7309,10 @@
         <v>NSE:BBTC-EQ</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -7327,10 +7324,10 @@
         <v>NSE:PCBL-EQ</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -7342,10 +7339,10 @@
         <v>NSE:TARIL-EQ</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -7357,10 +7354,10 @@
         <v>NSE:IDBI-EQ</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -7372,10 +7369,10 @@
         <v>NSE:ERIS-EQ</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -7387,10 +7384,10 @@
         <v>NSE:KPIL-EQ</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -7402,10 +7399,10 @@
         <v>NSE:WHIRLPOOL-EQ</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -7417,10 +7414,10 @@
         <v>NSE:GODFRYPHLP-EQ</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -7432,10 +7429,10 @@
         <v>NSE:NCC-EQ</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -7447,10 +7444,10 @@
         <v>NSE:RADICO-EQ</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -7462,10 +7459,10 @@
         <v>NSE:DEVYANI-EQ</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -7477,10 +7474,10 @@
         <v>NSE:CANFINHOME-EQ</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -7492,10 +7489,10 @@
         <v>NSE:CONCORDBIO-EQ</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -7507,10 +7504,10 @@
         <v>NSE:IKS-EQ</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -7522,10 +7519,10 @@
         <v>NSE:CEATLTD-EQ</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -7537,10 +7534,10 @@
         <v>NSE:CASTROLIND-EQ</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -7552,10 +7549,10 @@
         <v>NSE:PRAJIND-EQ</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -7564,13 +7561,13 @@
       </c>
       <c r="B376" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NSE:SWANENERGY-EQ</v>
+        <v>NSE:JYOTHYLAB-EQ</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -7579,13 +7576,13 @@
       </c>
       <c r="B377" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NSE:JYOTHYLAB-EQ</v>
+        <v>NSE:SAMMAANCAP-EQ</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -7594,13 +7591,13 @@
       </c>
       <c r="B378" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NSE:SAMMAANCAP-EQ</v>
+        <v>NSE:DEEPAKFERT-EQ</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -7609,13 +7606,13 @@
       </c>
       <c r="B379" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NSE:DEEPAKFERT-EQ</v>
+        <v>NSE:RTNINDIA-EQ</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -7624,13 +7621,13 @@
       </c>
       <c r="B380" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NSE:RTNINDIA-EQ</v>
+        <v>NSE:ALKYLAMINE-EQ</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -7639,13 +7636,13 @@
       </c>
       <c r="B381" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NSE:ALKYLAMINE-EQ</v>
+        <v>NSE:PGEL-EQ</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -7654,13 +7651,13 @@
       </c>
       <c r="B382" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NSE:PGEL-EQ</v>
+        <v>NSE:INDGN-EQ</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -7669,13 +7666,13 @@
       </c>
       <c r="B383" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NSE:INDGN-EQ</v>
+        <v>NSE:CUB-EQ</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -7684,13 +7681,13 @@
       </c>
       <c r="B384" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NSE:CUB-EQ</v>
+        <v>NSE:RAYMONDLSL-EQ</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -7699,13 +7696,13 @@
       </c>
       <c r="B385" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NSE:RAYMONDLSL-EQ</v>
+        <v>NSE:FSL-EQ</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -7713,14 +7710,14 @@
         <v>387</v>
       </c>
       <c r="B386" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>NSE:FSL-EQ</v>
+        <f t="shared" ref="B386:B449" si="6">"NSE:"&amp;A386&amp;"-"&amp;"EQ"</f>
+        <v>NSE:GNFC-EQ</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -7728,14 +7725,14 @@
         <v>388</v>
       </c>
       <c r="B387" s="1" t="str">
-        <f t="shared" ref="B387:B450" si="6">"NSE:"&amp;A387&amp;"-"&amp;"EQ"</f>
-        <v>NSE:GNFC-EQ</v>
+        <f t="shared" si="6"/>
+        <v>NSE:KANSAINER-EQ</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -7744,13 +7741,13 @@
       </c>
       <c r="B388" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:KANSAINER-EQ</v>
+        <v>NSE:TTML-EQ</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -7759,13 +7756,13 @@
       </c>
       <c r="B389" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:TTML-EQ</v>
+        <v>NSE:NUVAMA-EQ</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -7774,13 +7771,13 @@
       </c>
       <c r="B390" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:NUVAMA-EQ</v>
+        <v>NSE:CGCL-EQ</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -7789,13 +7786,13 @@
       </c>
       <c r="B391" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:CGCL-EQ</v>
+        <v>NSE:KIRLOSENG-EQ</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -7804,13 +7801,13 @@
       </c>
       <c r="B392" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:KIRLOSENG-EQ</v>
+        <v>NSE:SWSOLAR-EQ</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -7819,13 +7816,13 @@
       </c>
       <c r="B393" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:SWSOLAR-EQ</v>
+        <v>NSE:JKTYRE-EQ</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -7834,13 +7831,13 @@
       </c>
       <c r="B394" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:JKTYRE-EQ</v>
+        <v>NSE:LTFOODS-EQ</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -7849,13 +7846,13 @@
       </c>
       <c r="B395" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:LTFOODS-EQ</v>
+        <v>NSE:SKFINDIA-EQ</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -7864,13 +7861,13 @@
       </c>
       <c r="B396" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:SKFINDIA-EQ</v>
+        <v>NSE:TRIVENI-EQ</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -7879,13 +7876,13 @@
       </c>
       <c r="B397" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:TRIVENI-EQ</v>
+        <v>NSE:NSLNISP-EQ</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -7894,13 +7891,13 @@
       </c>
       <c r="B398" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:NSLNISP-EQ</v>
+        <v>NSE:CHAMBLFERT-EQ</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -7909,13 +7906,13 @@
       </c>
       <c r="B399" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:CHAMBLFERT-EQ</v>
+        <v>NSE:SOBHA-EQ</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -7924,13 +7921,13 @@
       </c>
       <c r="B400" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:SOBHA-EQ</v>
+        <v>NSE:ALOKINDS-EQ</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -7939,13 +7936,13 @@
       </c>
       <c r="B401" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:ALOKINDS-EQ</v>
+        <v>NSE:COHANCE-EQ</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -7954,13 +7951,13 @@
       </c>
       <c r="B402" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:COHANCE-EQ</v>
+        <v>NSE:KFINTECH-EQ</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -7969,13 +7966,13 @@
       </c>
       <c r="B403" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:KFINTECH-EQ</v>
+        <v>NSE:SAILIFE-EQ</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -7984,13 +7981,13 @@
       </c>
       <c r="B404" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:SAILIFE-EQ</v>
+        <v>NSE:SUNDRMFAST-EQ</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -7999,13 +7996,13 @@
       </c>
       <c r="B405" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:SUNDRMFAST-EQ</v>
+        <v>NSE:LALPATHLAB-EQ</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -8014,13 +8011,13 @@
       </c>
       <c r="B406" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:LALPATHLAB-EQ</v>
+        <v>NSE:PNCINFRA-EQ</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -8029,13 +8026,13 @@
       </c>
       <c r="B407" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:PNCINFRA-EQ</v>
+        <v>NSE:RRKABEL-EQ</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -8044,13 +8041,13 @@
       </c>
       <c r="B408" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:RRKABEL-EQ</v>
+        <v>NSE:NAVA-EQ</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -8059,13 +8056,13 @@
       </c>
       <c r="B409" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:NAVA-EQ</v>
+        <v>NSE:TECHNOE-EQ</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -8074,13 +8071,13 @@
       </c>
       <c r="B410" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:TECHNOE-EQ</v>
+        <v>NSE:ANANTRAJ-EQ</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -8089,13 +8086,13 @@
       </c>
       <c r="B411" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:ANANTRAJ-EQ</v>
+        <v>NSE:ELECON-EQ</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -8104,13 +8101,13 @@
       </c>
       <c r="B412" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:ELECON-EQ</v>
+        <v>NSE:SIGNATURE-EQ</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -8119,13 +8116,13 @@
       </c>
       <c r="B413" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:SIGNATURE-EQ</v>
+        <v>NSE:PFIZER-EQ</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -8134,13 +8131,13 @@
       </c>
       <c r="B414" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:PFIZER-EQ</v>
+        <v>NSE:JYOTICNC-EQ</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -8149,13 +8146,13 @@
       </c>
       <c r="B415" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:JYOTICNC-EQ</v>
+        <v>NSE:WELSPUNLIV-EQ</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -8164,13 +8161,13 @@
       </c>
       <c r="B416" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:WELSPUNLIV-EQ</v>
+        <v>NSE:IOB-EQ</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -8179,13 +8176,13 @@
       </c>
       <c r="B417" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:IOB-EQ</v>
+        <v>NSE:AAVAS-EQ</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -8194,13 +8191,13 @@
       </c>
       <c r="B418" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:AAVAS-EQ</v>
+        <v>NSE:DOMS-EQ</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -8209,13 +8206,13 @@
       </c>
       <c r="B419" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:DOMS-EQ</v>
+        <v>NSE:KNRCON-EQ</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -8224,13 +8221,13 @@
       </c>
       <c r="B420" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:KNRCON-EQ</v>
+        <v>NSE:RCF-EQ</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -8239,13 +8236,13 @@
       </c>
       <c r="B421" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:RCF-EQ</v>
+        <v>NSE:PVRINOX-EQ</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -8254,13 +8251,13 @@
       </c>
       <c r="B422" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:PVRINOX-EQ</v>
+        <v>NSE:ROUTE-EQ</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -8269,13 +8266,13 @@
       </c>
       <c r="B423" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:ROUTE-EQ</v>
+        <v>NSE:HAPPSTMNDS-EQ</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -8284,13 +8281,13 @@
       </c>
       <c r="B424" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:HAPPSTMNDS-EQ</v>
+        <v>NSE:CHALET-EQ</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -8299,13 +8296,13 @@
       </c>
       <c r="B425" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:CHALET-EQ</v>
+        <v>NSE:SCI-EQ</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -8314,13 +8311,13 @@
       </c>
       <c r="B426" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:SCI-EQ</v>
+        <v>NSE:CAMPUS-EQ</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -8329,13 +8326,13 @@
       </c>
       <c r="B427" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:CAMPUS-EQ</v>
+        <v>NSE:ARE&amp;M-EQ</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -8344,13 +8341,13 @@
       </c>
       <c r="B428" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:ARE&amp;M-EQ</v>
+        <v>NSE:FIVESTAR-EQ</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -8359,13 +8356,13 @@
       </c>
       <c r="B429" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:FIVESTAR-EQ</v>
+        <v>NSE:RKFORGE-EQ</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -8374,13 +8371,13 @@
       </c>
       <c r="B430" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:RKFORGE-EQ</v>
+        <v>NSE:ZFCVINDIA-EQ</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -8389,13 +8386,13 @@
       </c>
       <c r="B431" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:ZFCVINDIA-EQ</v>
+        <v>NSE:SCHNEIDER-EQ</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -8404,13 +8401,13 @@
       </c>
       <c r="B432" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:SCHNEIDER-EQ</v>
+        <v>NSE:WELCORP-EQ</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -8419,13 +8416,13 @@
       </c>
       <c r="B433" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:WELCORP-EQ</v>
+        <v>NSE:TITAGARH-EQ</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -8434,13 +8431,13 @@
       </c>
       <c r="B434" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:TITAGARH-EQ</v>
+        <v>NSE:AIIL-EQ</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -8449,13 +8446,13 @@
       </c>
       <c r="B435" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:AIIL-EQ</v>
+        <v>NSE:TRIDENT-EQ</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -8464,13 +8461,13 @@
       </c>
       <c r="B436" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:TRIDENT-EQ</v>
+        <v>NSE:MAHSEAMLES-EQ</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -8479,13 +8476,13 @@
       </c>
       <c r="B437" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:MAHSEAMLES-EQ</v>
+        <v>NSE:BSOFT-EQ</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -8494,13 +8491,13 @@
       </c>
       <c r="B438" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:BSOFT-EQ</v>
+        <v>NSE:NETWORK18-EQ</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -8509,13 +8506,13 @@
       </c>
       <c r="B439" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:NETWORK18-EQ</v>
+        <v>NSE:CREDITACC-EQ</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -8524,13 +8521,13 @@
       </c>
       <c r="B440" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:CREDITACC-EQ</v>
+        <v>NSE:RAYMOND-EQ</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -8539,13 +8536,13 @@
       </c>
       <c r="B441" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:RAYMOND-EQ</v>
+        <v>NSE:MANAPPURAM-EQ</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -8554,13 +8551,13 @@
       </c>
       <c r="B442" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:MANAPPURAM-EQ</v>
+        <v>NSE:BIKAJI-EQ</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -8569,13 +8566,13 @@
       </c>
       <c r="B443" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:BIKAJI-EQ</v>
+        <v>NSE:GPPL-EQ</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -8584,13 +8581,13 @@
       </c>
       <c r="B444" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:GPPL-EQ</v>
+        <v>NSE:RENUKA-EQ</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -8599,13 +8596,13 @@
       </c>
       <c r="B445" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:RENUKA-EQ</v>
+        <v>NSE:JBMA-EQ</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -8614,13 +8611,13 @@
       </c>
       <c r="B446" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:JBMA-EQ</v>
+        <v>NSE:KIRLOSBROS-EQ</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -8629,13 +8626,13 @@
       </c>
       <c r="B447" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:KIRLOSBROS-EQ</v>
+        <v>NSE:SAREGAMA-EQ</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -8644,13 +8641,13 @@
       </c>
       <c r="B448" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:SAREGAMA-EQ</v>
+        <v>NSE:HBLENGINE-EQ</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -8659,13 +8656,13 @@
       </c>
       <c r="B449" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>NSE:HBLENGINE-EQ</v>
+        <v>NSE:REDINGTON-EQ</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -8673,14 +8670,14 @@
         <v>451</v>
       </c>
       <c r="B450" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>NSE:REDINGTON-EQ</v>
+        <f t="shared" ref="B450:B500" si="7">"NSE:"&amp;A450&amp;"-"&amp;"EQ"</f>
+        <v>NSE:ABREL-EQ</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -8688,14 +8685,14 @@
         <v>452</v>
       </c>
       <c r="B451" s="1" t="str">
-        <f t="shared" ref="B451:B501" si="7">"NSE:"&amp;A451&amp;"-"&amp;"EQ"</f>
-        <v>NSE:ABREL-EQ</v>
+        <f t="shared" si="7"/>
+        <v>NSE:APTUS-EQ</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -8704,13 +8701,13 @@
       </c>
       <c r="B452" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:APTUS-EQ</v>
+        <v>NSE:IRCON-EQ</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -8719,13 +8716,13 @@
       </c>
       <c r="B453" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:IRCON-EQ</v>
+        <v>NSE:WESTLIFE-EQ</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -8734,13 +8731,13 @@
       </c>
       <c r="B454" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:WESTLIFE-EQ</v>
+        <v>NSE:NATCOPHARM-EQ</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -8749,13 +8746,13 @@
       </c>
       <c r="B455" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:NATCOPHARM-EQ</v>
+        <v>NSE:VTL-EQ</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -8764,13 +8761,13 @@
       </c>
       <c r="B456" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:VTL-EQ</v>
+        <v>NSE:CARBORUNIV-EQ</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -8779,13 +8776,13 @@
       </c>
       <c r="B457" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:CARBORUNIV-EQ</v>
+        <v>NSE:JWL-EQ</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -8794,13 +8791,13 @@
       </c>
       <c r="B458" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:JWL-EQ</v>
+        <v>NSE:FACT-EQ</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -8809,13 +8806,13 @@
       </c>
       <c r="B459" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:FACT-EQ</v>
+        <v>NSE:INOXINDIA-EQ</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -8824,13 +8821,13 @@
       </c>
       <c r="B460" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:INOXINDIA-EQ</v>
+        <v>NSE:OLECTRA-EQ</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -8839,13 +8836,13 @@
       </c>
       <c r="B461" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:OLECTRA-EQ</v>
+        <v>NSE:GESHIP-EQ</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -8854,13 +8851,13 @@
       </c>
       <c r="B462" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:GESHIP-EQ</v>
+        <v>NSE:DBREALTY-EQ</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -8869,13 +8866,13 @@
       </c>
       <c r="B463" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:DBREALTY-EQ</v>
+        <v>NSE:JINDALSAW-EQ</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -8884,13 +8881,13 @@
       </c>
       <c r="B464" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:JINDALSAW-EQ</v>
+        <v>NSE:ITI-EQ</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -8899,13 +8896,13 @@
       </c>
       <c r="B465" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:ITI-EQ</v>
+        <v>NSE:GRSE-EQ</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -8914,13 +8911,13 @@
       </c>
       <c r="B466" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:GRSE-EQ</v>
+        <v>NSE:HSCL-EQ</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -8929,13 +8926,13 @@
       </c>
       <c r="B467" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:HSCL-EQ</v>
+        <v>NSE:BLUEDART-EQ</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -8944,13 +8941,13 @@
       </c>
       <c r="B468" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:BLUEDART-EQ</v>
+        <v>NSE:KAYNES-EQ</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -8959,13 +8956,13 @@
       </c>
       <c r="B469" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:KAYNES-EQ</v>
+        <v>NSE:JMFINANCIL-EQ</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -8974,13 +8971,13 @@
       </c>
       <c r="B470" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:JMFINANCIL-EQ</v>
+        <v>NSE:AFCONS-EQ</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -8989,13 +8986,13 @@
       </c>
       <c r="B471" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:AFCONS-EQ</v>
+        <v>NSE:BASF-EQ</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -9004,13 +9001,13 @@
       </c>
       <c r="B472" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:BASF-EQ</v>
+        <v>NSE:MMTC-EQ</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -9019,13 +9016,13 @@
       </c>
       <c r="B473" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:MMTC-EQ</v>
+        <v>NSE:GRAVITA-EQ</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -9034,13 +9031,13 @@
       </c>
       <c r="B474" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:GRAVITA-EQ</v>
+        <v>NSE:IIFL-EQ</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -9049,13 +9046,13 @@
       </c>
       <c r="B475" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:IIFL-EQ</v>
+        <v>NSE:BEML-EQ</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -9064,13 +9061,13 @@
       </c>
       <c r="B476" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:BEML-EQ</v>
+        <v>NSE:CAMS-EQ</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -9079,13 +9076,13 @@
       </c>
       <c r="B477" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:CAMS-EQ</v>
+        <v>NSE:MANYAVAR-EQ</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -9094,13 +9091,13 @@
       </c>
       <c r="B478" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:MANYAVAR-EQ</v>
+        <v>NSE:MCX-EQ</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -9109,13 +9106,13 @@
       </c>
       <c r="B479" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:MCX-EQ</v>
+        <v>NSE:HINDCOPPER-EQ</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -9124,13 +9121,13 @@
       </c>
       <c r="B480" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:HINDCOPPER-EQ</v>
+        <v>NSE:DATAPATTNS-EQ</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -9139,13 +9136,13 @@
       </c>
       <c r="B481" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:DATAPATTNS-EQ</v>
+        <v>NSE:VGUARD-EQ</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -9154,13 +9151,13 @@
       </c>
       <c r="B482" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:VGUARD-EQ</v>
+        <v>NSE:ZEEL-EQ</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -9169,13 +9166,13 @@
       </c>
       <c r="B483" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:ZEEL-EQ</v>
+        <v>NSE:RAILTEL-EQ</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -9184,13 +9181,13 @@
       </c>
       <c r="B484" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:RAILTEL-EQ</v>
+        <v>NSE:TEJASNET-EQ</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -9199,13 +9196,13 @@
       </c>
       <c r="B485" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:TEJASNET-EQ</v>
+        <v>NSE:ANGELONE-EQ</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -9214,13 +9211,13 @@
       </c>
       <c r="B486" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:ANGELONE-EQ</v>
+        <v>NSE:IEX-EQ</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -9229,13 +9226,13 @@
       </c>
       <c r="B487" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:IEX-EQ</v>
+        <v>NSE:POLYMED-EQ</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -9244,13 +9241,13 @@
       </c>
       <c r="B488" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:POLYMED-EQ</v>
+        <v>NSE:J&amp;KBANK-EQ</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -9259,13 +9256,13 @@
       </c>
       <c r="B489" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:J&amp;KBANK-EQ</v>
+        <v>NSE:BRIGADE-EQ</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -9274,13 +9271,13 @@
       </c>
       <c r="B490" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:BRIGADE-EQ</v>
+        <v>NSE:ELGIEQUIP-EQ</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -9289,13 +9286,13 @@
       </c>
       <c r="B491" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:ELGIEQUIP-EQ</v>
+        <v>NSE:CHOLAHLDNG-EQ</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -9304,13 +9301,13 @@
       </c>
       <c r="B492" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:CHOLAHLDNG-EQ</v>
+        <v>NSE:RPOWER-EQ</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -9319,13 +9316,13 @@
       </c>
       <c r="B493" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:RPOWER-EQ</v>
+        <v>NSE:ZENTEC-EQ</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -9334,13 +9331,13 @@
       </c>
       <c r="B494" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:ZENTEC-EQ</v>
+        <v>NSE:SAGILITY-EQ</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -9349,13 +9346,13 @@
       </c>
       <c r="B495" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:SAGILITY-EQ</v>
+        <v>NSE:CDSL-EQ</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -9364,13 +9361,13 @@
       </c>
       <c r="B496" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:CDSL-EQ</v>
+        <v>NSE:ENGINERSIN-EQ</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -9379,13 +9376,13 @@
       </c>
       <c r="B497" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:ENGINERSIN-EQ</v>
+        <v>NSE:NETWEB-EQ</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -9394,13 +9391,13 @@
       </c>
       <c r="B498" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:NETWEB-EQ</v>
+        <v>NSE:TANLA-EQ</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -9409,13 +9406,13 @@
       </c>
       <c r="B499" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:TANLA-EQ</v>
+        <v>NSE:GMDCLTD-EQ</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -9424,28 +9421,13 @@
       </c>
       <c r="B500" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NSE:GMDCLTD-EQ</v>
+        <v>NSE:HOMEFIRST-EQ</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A501" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B501" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>NSE:HOMEFIRST-EQ</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D501" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
